--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.02061</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>0.02384469599</v>
+        <v>0.01742034602</v>
       </c>
       <c r="R2">
-        <v>0.21460226391</v>
+        <v>0.15678311418</v>
       </c>
       <c r="S2">
-        <v>0.05653984104486641</v>
+        <v>0.009040554254253255</v>
       </c>
       <c r="T2">
-        <v>0.0651263661336549</v>
+        <v>0.01019786397167053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.02061</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
         <v>0.22150678337</v>
@@ -638,10 +638,10 @@
         <v>1.99356105033</v>
       </c>
       <c r="S3">
-        <v>0.5252303626496961</v>
+        <v>0.1149543235503199</v>
       </c>
       <c r="T3">
-        <v>0.6049954204026236</v>
+        <v>0.1296699872101365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.02061</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>0.00684246504</v>
+        <v>0.01057163386</v>
       </c>
       <c r="R4">
-        <v>0.06158218535999999</v>
+        <v>0.09514470474</v>
       </c>
       <c r="S4">
-        <v>0.01622465163233374</v>
+        <v>0.005486310625386233</v>
       </c>
       <c r="T4">
-        <v>0.01868863765923709</v>
+        <v>0.006188630463414083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.02061</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>0.166808838375</v>
+        <v>0.13194726039</v>
       </c>
       <c r="R5">
-        <v>1.00085303025</v>
+        <v>0.7916835623399999</v>
       </c>
       <c r="S5">
-        <v>0.3955322060116276</v>
+        <v>0.06847604317884132</v>
       </c>
       <c r="T5">
-        <v>0.3037336126210463</v>
+        <v>0.05149458421958529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,350 @@
         <v>0.02061</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2011300758263314</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2011300758263313</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8899256666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.669777</v>
+      </c>
+      <c r="O6">
+        <v>0.0157750858716439</v>
+      </c>
+      <c r="P6">
+        <v>0.01779450411292666</v>
+      </c>
+      <c r="Q6">
+        <v>0.00611378933</v>
+      </c>
+      <c r="R6">
+        <v>0.05502410396999999</v>
+      </c>
+      <c r="S6">
+        <v>0.003172844217530626</v>
+      </c>
+      <c r="T6">
+        <v>0.003579009961524904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.027287</v>
+      </c>
+      <c r="H7">
+        <v>0.081861</v>
+      </c>
+      <c r="I7">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J7">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.535712666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.607138</v>
+      </c>
+      <c r="O7">
+        <v>0.04494879354621957</v>
+      </c>
+      <c r="P7">
+        <v>0.05070282964779482</v>
+      </c>
+      <c r="Q7">
+        <v>0.06919199153533334</v>
+      </c>
+      <c r="R7">
+        <v>0.622727923818</v>
+      </c>
+      <c r="S7">
+        <v>0.03590823929196632</v>
+      </c>
+      <c r="T7">
+        <v>0.04050496567612429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.027287</v>
+      </c>
+      <c r="H8">
+        <v>0.081861</v>
+      </c>
+      <c r="I8">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J8">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N8">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O8">
+        <v>0.5715421877013505</v>
+      </c>
+      <c r="P8">
+        <v>0.6447070965264385</v>
+      </c>
+      <c r="Q8">
+        <v>0.8798043082703334</v>
+      </c>
+      <c r="R8">
+        <v>7.918238774433001</v>
+      </c>
+      <c r="S8">
+        <v>0.4565878641510306</v>
+      </c>
+      <c r="T8">
+        <v>0.515037109316302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.027287</v>
+      </c>
+      <c r="H9">
+        <v>0.081861</v>
+      </c>
+      <c r="I9">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J9">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.538811333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.616434</v>
+      </c>
+      <c r="O9">
+        <v>0.02727742533206951</v>
+      </c>
+      <c r="P9">
+        <v>0.03076929413956839</v>
+      </c>
+      <c r="Q9">
+        <v>0.04198954485266667</v>
+      </c>
+      <c r="R9">
+        <v>0.377905903674</v>
+      </c>
+      <c r="S9">
+        <v>0.02179111470668328</v>
+      </c>
+      <c r="T9">
+        <v>0.02458066367615431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.027287</v>
+      </c>
+      <c r="H10">
+        <v>0.081861</v>
+      </c>
+      <c r="I10">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J10">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.3973579999999999</v>
-      </c>
-      <c r="N6">
-        <v>1.192074</v>
-      </c>
-      <c r="O6">
-        <v>0.006472938661476068</v>
-      </c>
-      <c r="P6">
-        <v>0.007455963183438351</v>
-      </c>
-      <c r="Q6">
-        <v>0.00272984946</v>
-      </c>
-      <c r="R6">
-        <v>0.02456864514</v>
-      </c>
-      <c r="S6">
-        <v>0.006472938661476068</v>
-      </c>
-      <c r="T6">
-        <v>0.007455963183438351</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.206297</v>
+      </c>
+      <c r="N10">
+        <v>38.412594</v>
+      </c>
+      <c r="O10">
+        <v>0.3404565075487166</v>
+      </c>
+      <c r="P10">
+        <v>0.2560262755732715</v>
+      </c>
+      <c r="Q10">
+        <v>0.524082226239</v>
+      </c>
+      <c r="R10">
+        <v>3.144493357434</v>
+      </c>
+      <c r="S10">
+        <v>0.2719804643698753</v>
+      </c>
+      <c r="T10">
+        <v>0.2045316913536862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.027287</v>
+      </c>
+      <c r="H11">
+        <v>0.081861</v>
+      </c>
+      <c r="I11">
+        <v>0.7988699241736688</v>
+      </c>
+      <c r="J11">
+        <v>0.7988699241736686</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8899256666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.669777</v>
+      </c>
+      <c r="O11">
+        <v>0.0157750858716439</v>
+      </c>
+      <c r="P11">
+        <v>0.01779450411292666</v>
+      </c>
+      <c r="Q11">
+        <v>0.02428340166633334</v>
+      </c>
+      <c r="R11">
+        <v>0.218550614997</v>
+      </c>
+      <c r="S11">
+        <v>0.01260224165411328</v>
+      </c>
+      <c r="T11">
+        <v>0.01421549415140176</v>
       </c>
     </row>
   </sheetData>
